--- a/CLS_NatSu/Resources/ExportExcel.xlsx
+++ b/CLS_NatSu/Resources/ExportExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
   <si>
     <t>Image</t>
   </si>
@@ -113,13 +113,16 @@
   </si>
   <si>
     <t>User_2</t>
+  </si>
+  <si>
+    <t>PhieuTrong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +174,16 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +211,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -272,6 +289,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -570,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CR1"/>
+  <dimension ref="A1:CS1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -590,10 +610,12 @@
     <col min="49" max="49" width="14.42578125" style="8" customWidth="1"/>
     <col min="50" max="64" width="10.7109375" style="8"/>
     <col min="65" max="65" width="10.7109375" style="9"/>
-    <col min="66" max="16384" width="10.7109375" style="8"/>
+    <col min="66" max="96" width="10.7109375" style="8"/>
+    <col min="97" max="97" width="11.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="98" max="16384" width="10.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="7" customFormat="1">
+    <row r="1" spans="1:97" s="7" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,9 +903,13 @@
       </c>
       <c r="CR1" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="CS1" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>